--- a/forecast_summary_B0BVBXT6P1.xlsx
+++ b/forecast_summary_B0BVBXT6P1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>103.2730596470565</v>
       </c>
       <c r="D2" t="n">
-        <v>165.5747075820827</v>
+        <v>166.7915271897083</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
@@ -511,6 +516,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="n">
         <v>90.72642209269713</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0133368754675</v>
+        <v>162.5238531842383</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
@@ -547,6 +555,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
         <v>89.13279625088641</v>
       </c>
       <c r="D4" t="n">
-        <v>151.4624156319637</v>
+        <v>156.4336862082902</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -583,6 +594,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
         <v>96.28643201624824</v>
       </c>
       <c r="D5" t="n">
-        <v>154.6711039882653</v>
+        <v>162.0408448398057</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
@@ -619,6 +633,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>97.86175411324756</v>
       </c>
       <c r="D6" t="n">
-        <v>159.0800561935782</v>
+        <v>162.5397988855866</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
@@ -655,6 +672,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
         <v>83.10174386838293</v>
       </c>
       <c r="D7" t="n">
-        <v>150.8839485396351</v>
+        <v>146.6713242880691</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
@@ -691,6 +711,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
         <v>56.12567795965236</v>
       </c>
       <c r="D8" t="n">
-        <v>120.2231582742151</v>
+        <v>116.7410534794528</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
@@ -727,6 +750,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>31.52578526585364</v>
       </c>
       <c r="D9" t="n">
-        <v>94.9790613452757</v>
+        <v>101.2680566881929</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
@@ -763,6 +789,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>19.99256184248219</v>
       </c>
       <c r="D10" t="n">
-        <v>86.77500273985069</v>
+        <v>89.60669688729939</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
@@ -799,6 +828,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>19.63165857790398</v>
       </c>
       <c r="D11" t="n">
-        <v>84.90831410739489</v>
+        <v>86.3852050554021</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
@@ -835,6 +867,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>21.19777454713791</v>
       </c>
       <c r="D12" t="n">
-        <v>86.98784434344643</v>
+        <v>86.23665879367572</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
@@ -871,6 +906,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>19.88184923567866</v>
       </c>
       <c r="D13" t="n">
-        <v>85.73392248456204</v>
+        <v>86.8490473406349</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
@@ -907,6 +945,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>20.03431202894573</v>
       </c>
       <c r="D14" t="n">
-        <v>84.48793477746914</v>
+        <v>86.71252628657012</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
@@ -943,6 +984,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>28.3169823240329</v>
       </c>
       <c r="D15" t="n">
-        <v>95.80858819517157</v>
+        <v>95.95300021544698</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>43.9935090781274</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1917154265649</v>
+        <v>109.8879081220807</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>57.58794749944191</v>
       </c>
       <c r="D17" t="n">
-        <v>129.647958141626</v>
+        <v>126.0362766136931</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>59.19378169270953</v>
       </c>
       <c r="D18" t="n">
-        <v>124.7102532236569</v>
+        <v>122.6510589976874</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>47.29551812482661</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2176539406612</v>
+        <v>115.4053139273149</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>29.30182039241508</v>
       </c>
       <c r="D20" t="n">
-        <v>95.05630192503527</v>
+        <v>92.85125365991274</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>14.40219963437996</v>
       </c>
       <c r="D21" t="n">
-        <v>78.48567209650463</v>
+        <v>80.84431696937185</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>H610M S2H V2 DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>701</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>407</t>
         </is>
       </c>
     </row>
